--- a/AFL_ML/Data/Collingwood_stats.xlsx
+++ b/AFL_ML/Data/Collingwood_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KW102"/>
+  <dimension ref="A1:KX102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IN24" activeCellId="0" sqref="IN24"/>
@@ -1387,8 +1387,11 @@
       <c r="KV1" s="2" t="n">
         <v>10749</v>
       </c>
-      <c r="KW1" t="n">
+      <c r="KW1" s="2" t="n">
         <v>10752</v>
+      </c>
+      <c r="KX1" t="n">
+        <v>10762</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2318,7 +2321,10 @@
       <c r="KV2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="KW2" t="n">
+      <c r="KW2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KX2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3249,8 +3255,11 @@
       <c r="KV3" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KW3" t="n">
+      <c r="KW3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4180,8 +4189,11 @@
       <c r="KV4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KW4" t="n">
+      <c r="KW4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5111,8 +5123,11 @@
       <c r="KV5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KW5" t="n">
+      <c r="KW5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KX5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -6042,8 +6057,11 @@
       <c r="KV6" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="KW6" t="n">
+      <c r="KW6" s="2" t="n">
         <v>125</v>
+      </c>
+      <c r="KX6" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6973,8 +6991,11 @@
       <c r="KV7" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="KW7" t="n">
+      <c r="KW7" s="2" t="n">
         <v>103</v>
+      </c>
+      <c r="KX7" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7904,8 +7925,11 @@
       <c r="KV8" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="KW8" t="n">
+      <c r="KW8" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KX8" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8835,7 +8859,10 @@
       <c r="KV9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KW9" t="n">
+      <c r="KW9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KX9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9766,8 +9793,11 @@
       <c r="KV10" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KW10" t="n">
+      <c r="KW10" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KX10" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10697,8 +10727,11 @@
       <c r="KV11" s="2" t="n">
         <v>193</v>
       </c>
-      <c r="KW11" t="n">
+      <c r="KW11" s="2" t="n">
         <v>229</v>
+      </c>
+      <c r="KX11" t="n">
+        <v>209</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11628,7 +11661,10 @@
       <c r="KV12" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="KW12" t="n">
+      <c r="KW12" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="KX12" t="n">
         <v>143</v>
       </c>
     </row>
@@ -12559,8 +12595,11 @@
       <c r="KV13" s="2" t="n">
         <v>303</v>
       </c>
-      <c r="KW13" t="n">
+      <c r="KW13" s="2" t="n">
         <v>372</v>
+      </c>
+      <c r="KX13" t="n">
+        <v>352</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13490,8 +13529,11 @@
       <c r="KV14" s="2" t="n">
         <v>1.75</v>
       </c>
-      <c r="KW14" t="n">
+      <c r="KW14" s="2" t="n">
         <v>1.6</v>
+      </c>
+      <c r="KX14" t="n">
+        <v>1.46</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14421,8 +14463,11 @@
       <c r="KV15" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KW15" t="n">
+      <c r="KW15" s="2" t="n">
         <v>105</v>
+      </c>
+      <c r="KX15" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15352,8 +15397,11 @@
       <c r="KV16" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="KW16" t="n">
+      <c r="KW16" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KX16" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16283,8 +16331,11 @@
       <c r="KV17" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KW17" t="n">
+      <c r="KW17" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KX17" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -17214,8 +17265,11 @@
       <c r="KV18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KW18" t="n">
+      <c r="KW18" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KX18" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -18145,8 +18199,11 @@
       <c r="KV19" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KW19" t="n">
+      <c r="KW19" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KX19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -19076,8 +19133,11 @@
       <c r="KV20" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KW20" t="n">
+      <c r="KW20" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KX20" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -20007,8 +20067,11 @@
       <c r="KV21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KW21" t="n">
+      <c r="KW21" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KX21" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20938,8 +21001,11 @@
       <c r="KV22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KW22" t="n">
+      <c r="KW22" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KX22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21869,8 +21935,11 @@
       <c r="KV23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KW23" t="n">
+      <c r="KW23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KX23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22800,7 +22869,10 @@
       <c r="KV24" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KW24" t="n">
+      <c r="KW24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KX24" t="n">
         <v>30</v>
       </c>
     </row>
@@ -23731,8 +23803,11 @@
       <c r="KV25" s="2" t="n">
         <v>58.3</v>
       </c>
-      <c r="KW25" t="n">
+      <c r="KW25" s="2" t="n">
         <v>63.3</v>
+      </c>
+      <c r="KX25" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24662,8 +24737,11 @@
       <c r="KV26" s="2" t="n">
         <v>21.64</v>
       </c>
-      <c r="KW26" t="n">
+      <c r="KW26" s="2" t="n">
         <v>19.58</v>
+      </c>
+      <c r="KX26" t="n">
+        <v>16.76</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25593,8 +25671,11 @@
       <c r="KV27" s="2" t="n">
         <v>12.62</v>
       </c>
-      <c r="KW27" t="n">
+      <c r="KW27" s="2" t="n">
         <v>12.4</v>
+      </c>
+      <c r="KX27" t="n">
+        <v>11.73</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26524,8 +26605,11 @@
       <c r="KV28" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KW28" t="n">
+      <c r="KW28" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KX28" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27455,8 +27539,11 @@
       <c r="KV29" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KW29" t="n">
+      <c r="KW29" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KX29" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28386,8 +28473,11 @@
       <c r="KV30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KW30" t="n">
+      <c r="KW30" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KX30" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29317,8 +29407,11 @@
       <c r="KV31" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KW31" t="n">
+      <c r="KW31" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KX31" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -30248,8 +30341,11 @@
       <c r="KV32" s="2" t="n">
         <v>2.58</v>
       </c>
-      <c r="KW32" t="n">
+      <c r="KW32" s="2" t="n">
         <v>2.07</v>
+      </c>
+      <c r="KX32" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -31179,8 +31275,11 @@
       <c r="KV33" s="2" t="n">
         <v>4.43</v>
       </c>
-      <c r="KW33" t="n">
+      <c r="KW33" s="2" t="n">
         <v>3.26</v>
+      </c>
+      <c r="KX33" t="n">
+        <v>2.71</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -32110,8 +32209,11 @@
       <c r="KV34" s="2" t="n">
         <v>33.9</v>
       </c>
-      <c r="KW34" t="n">
+      <c r="KW34" s="2" t="n">
         <v>43.5</v>
+      </c>
+      <c r="KX34" t="n">
+        <v>49.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -33041,8 +33143,11 @@
       <c r="KV35" s="2" t="n">
         <v>22.6</v>
       </c>
-      <c r="KW35" t="n">
+      <c r="KW35" s="2" t="n">
         <v>30.6</v>
+      </c>
+      <c r="KX35" t="n">
+        <v>36.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33972,8 +34077,11 @@
       <c r="KV36" s="2" t="n">
         <v>189.2</v>
       </c>
-      <c r="KW36" t="n">
+      <c r="KW36" s="2" t="n">
         <v>188.4</v>
+      </c>
+      <c r="KX36" t="n">
+        <v>188.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -34903,8 +35011,11 @@
       <c r="KV37" s="2" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="KW37" t="n">
+      <c r="KW37" s="2" t="n">
         <v>87.90000000000001</v>
+      </c>
+      <c r="KX37" t="n">
+        <v>88.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35834,8 +35945,11 @@
       <c r="KV38" s="2" t="n">
         <v>26.24</v>
       </c>
-      <c r="KW38" t="n">
+      <c r="KW38" s="2" t="n">
         <v>27.33</v>
+      </c>
+      <c r="KX38" t="n">
+        <v>27.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -36765,8 +36879,11 @@
       <c r="KV39" s="2" t="n">
         <v>109.6</v>
       </c>
-      <c r="KW39" t="n">
+      <c r="KW39" s="2" t="n">
         <v>128.6</v>
+      </c>
+      <c r="KX39" t="n">
+        <v>121.1</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -37696,8 +37813,11 @@
       <c r="KV40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KW40" t="n">
+      <c r="KW40" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KX40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -38627,7 +38747,10 @@
       <c r="KV41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KW41" t="n">
+      <c r="KW41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KX41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -39558,7 +39681,10 @@
       <c r="KV42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KW42" t="n">
+      <c r="KW42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KX42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -40489,8 +40615,11 @@
       <c r="KV43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KW43" t="n">
+      <c r="KW43" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KX43" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -41420,8 +41549,11 @@
       <c r="KV44" s="2" t="n">
         <v>134</v>
       </c>
-      <c r="KW44" t="n">
+      <c r="KW44" s="2" t="n">
         <v>135</v>
+      </c>
+      <c r="KX44" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -42351,8 +42483,11 @@
       <c r="KV45" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="KW45" t="n">
+      <c r="KW45" s="2" t="n">
         <v>233</v>
+      </c>
+      <c r="KX45" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -43282,8 +43417,11 @@
       <c r="KV46" s="2" t="n">
         <v>201</v>
       </c>
-      <c r="KW46" t="n">
+      <c r="KW46" s="2" t="n">
         <v>286</v>
+      </c>
+      <c r="KX46" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -44213,8 +44351,11 @@
       <c r="KV47" s="2" t="n">
         <v>66.3</v>
       </c>
-      <c r="KW47" t="n">
+      <c r="KW47" s="2" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="KX47" t="n">
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -45144,8 +45285,11 @@
       <c r="KV48" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KW48" t="n">
+      <c r="KW48" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KX48" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -46075,8 +46219,11 @@
       <c r="KV49" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KW49" t="n">
+      <c r="KW49" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KX49" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -47006,8 +47153,11 @@
       <c r="KV50" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KW50" t="n">
+      <c r="KW50" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KX50" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -47937,8 +48087,11 @@
       <c r="KV51" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KW51" t="n">
+      <c r="KW51" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KX51" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -48868,8 +49021,11 @@
       <c r="KV52" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KW52" t="n">
+      <c r="KW52" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KX52" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -49799,8 +49955,11 @@
       <c r="KV53" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KW53" t="n">
+      <c r="KW53" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KX53" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -50730,8 +50889,11 @@
       <c r="KV54" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KW54" t="n">
+      <c r="KW54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KX54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -51661,8 +51823,11 @@
       <c r="KV55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KW55" t="n">
+      <c r="KW55" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KX55" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -52592,8 +52757,11 @@
       <c r="KV56" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KW56" t="n">
+      <c r="KW56" s="2" t="n">
         <v>94.7</v>
+      </c>
+      <c r="KX56" t="n">
+        <v>76.2</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -53523,8 +53691,11 @@
       <c r="KV57" s="2" t="n">
         <v>217</v>
       </c>
-      <c r="KW57" t="n">
+      <c r="KW57" s="2" t="n">
         <v>182</v>
+      </c>
+      <c r="KX57" t="n">
+        <v>179</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -54454,8 +54625,11 @@
       <c r="KV58" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="KW58" t="n">
+      <c r="KW58" s="2" t="n">
         <v>133</v>
+      </c>
+      <c r="KX58" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -55385,8 +55559,11 @@
       <c r="KV59" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="KW59" t="n">
+      <c r="KW59" s="2" t="n">
         <v>315</v>
+      </c>
+      <c r="KX59" t="n">
+        <v>302</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -56316,8 +56493,11 @@
       <c r="KV60" s="2" t="n">
         <v>2.11</v>
       </c>
-      <c r="KW60" t="n">
+      <c r="KW60" s="2" t="n">
         <v>1.37</v>
+      </c>
+      <c r="KX60" t="n">
+        <v>1.46</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -57247,8 +57427,11 @@
       <c r="KV61" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="KW61" t="n">
+      <c r="KW61" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="KX61" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -58178,8 +58361,11 @@
       <c r="KV62" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KW62" t="n">
+      <c r="KW62" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KX62" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -59109,8 +59295,11 @@
       <c r="KV63" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KW63" t="n">
+      <c r="KW63" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KX63" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -60040,8 +60229,11 @@
       <c r="KV64" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KW64" t="n">
+      <c r="KW64" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KX64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -60971,8 +61163,11 @@
       <c r="KV65" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KW65" t="n">
+      <c r="KW65" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KX65" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -61902,8 +62097,11 @@
       <c r="KV66" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KW66" t="n">
+      <c r="KW66" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KX66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -62833,8 +63031,11 @@
       <c r="KV67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KW67" t="n">
+      <c r="KW67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KX67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -63764,8 +63965,11 @@
       <c r="KV68" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KW68" t="n">
+      <c r="KW68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KX68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -64695,8 +64899,11 @@
       <c r="KV69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KW69" t="n">
+      <c r="KW69" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KX69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -65626,8 +65833,11 @@
       <c r="KV70" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KW70" t="n">
+      <c r="KW70" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KX70" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -66557,8 +66767,11 @@
       <c r="KV71" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KW71" t="n">
+      <c r="KW71" s="2" t="n">
         <v>69.59999999999999</v>
+      </c>
+      <c r="KX71" t="n">
+        <v>47.4</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -67488,8 +67701,11 @@
       <c r="KV72" s="2" t="n">
         <v>22.86</v>
       </c>
-      <c r="KW72" t="n">
+      <c r="KW72" s="2" t="n">
         <v>19.69</v>
+      </c>
+      <c r="KX72" t="n">
+        <v>33.56</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -68419,8 +68635,11 @@
       <c r="KV73" s="2" t="n">
         <v>12.8</v>
       </c>
-      <c r="KW73" t="n">
+      <c r="KW73" s="2" t="n">
         <v>13.7</v>
+      </c>
+      <c r="KX73" t="n">
+        <v>15.89</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -69350,8 +69569,11 @@
       <c r="KV74" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KW74" t="n">
+      <c r="KW74" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KX74" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -70281,8 +70503,11 @@
       <c r="KV75" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KW75" t="n">
+      <c r="KW75" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KX75" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -71212,8 +71437,11 @@
       <c r="KV76" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KW76" t="n">
+      <c r="KW76" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KX76" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -72143,8 +72371,11 @@
       <c r="KV77" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KW77" t="n">
+      <c r="KW77" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KX77" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -73074,8 +73305,11 @@
       <c r="KV78" s="2" t="n">
         <v>2.24</v>
       </c>
-      <c r="KW78" t="n">
+      <c r="KW78" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KX78" t="n">
+        <v>2.47</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -74005,8 +74239,11 @@
       <c r="KV79" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KW79" t="n">
+      <c r="KW79" s="2" t="n">
         <v>2.88</v>
+      </c>
+      <c r="KX79" t="n">
+        <v>5.22</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -74936,8 +75173,11 @@
       <c r="KV80" s="2" t="n">
         <v>41.1</v>
       </c>
-      <c r="KW80" t="n">
+      <c r="KW80" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KX80" t="n">
+        <v>36.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -75867,8 +76107,11 @@
       <c r="KV81" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KW81" t="n">
+      <c r="KW81" s="2" t="n">
         <v>34.8</v>
+      </c>
+      <c r="KX81" t="n">
+        <v>19.1</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -76798,8 +77041,11 @@
       <c r="KV82" s="2" t="n">
         <v>187.5</v>
       </c>
-      <c r="KW82" t="n">
+      <c r="KW82" s="2" t="n">
         <v>188.9</v>
+      </c>
+      <c r="KX82" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -77729,8 +77975,11 @@
       <c r="KV83" s="2" t="n">
         <v>85.8</v>
       </c>
-      <c r="KW83" t="n">
+      <c r="KW83" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="KX83" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -78660,8 +78909,11 @@
       <c r="KV84" s="2" t="n">
         <v>25.66</v>
       </c>
-      <c r="KW84" t="n">
+      <c r="KW84" s="2" t="n">
         <v>27.66</v>
+      </c>
+      <c r="KX84" t="n">
+        <v>25.74</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -79591,8 +79843,11 @@
       <c r="KV85" s="2" t="n">
         <v>114.7</v>
       </c>
-      <c r="KW85" t="n">
+      <c r="KW85" s="2" t="n">
         <v>136.8</v>
+      </c>
+      <c r="KX85" t="n">
+        <v>102.9</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -80522,7 +80777,10 @@
       <c r="KV86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KW86" t="n">
+      <c r="KW86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KX86" t="n">
         <v>5</v>
       </c>
     </row>
@@ -81453,8 +81711,11 @@
       <c r="KV87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KW87" t="n">
+      <c r="KW87" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KX87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -82384,8 +82645,11 @@
       <c r="KV88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KW88" t="n">
+      <c r="KW88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KX88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -83315,8 +83579,11 @@
       <c r="KV89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KW89" t="n">
+      <c r="KW89" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KX89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -84246,8 +84513,11 @@
       <c r="KV90" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="KW90" t="n">
+      <c r="KW90" s="2" t="n">
         <v>130</v>
+      </c>
+      <c r="KX90" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -85177,8 +85447,11 @@
       <c r="KV91" s="2" t="n">
         <v>166</v>
       </c>
-      <c r="KW91" t="n">
+      <c r="KW91" s="2" t="n">
         <v>170</v>
+      </c>
+      <c r="KX91" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -86108,8 +86381,11 @@
       <c r="KV92" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="KW92" t="n">
+      <c r="KW92" s="2" t="n">
         <v>221</v>
+      </c>
+      <c r="KX92" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -87039,8 +87315,11 @@
       <c r="KV93" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KW93" t="n">
+      <c r="KW93" s="2" t="n">
         <v>70.2</v>
+      </c>
+      <c r="KX93" t="n">
+        <v>74.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -87970,8 +88249,11 @@
       <c r="KV94" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KW94" t="n">
+      <c r="KW94" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KX94" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -88901,8 +89183,11 @@
       <c r="KV95" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KW95" t="n">
+      <c r="KW95" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KX95" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -89832,8 +90117,11 @@
       <c r="KV96" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KW96" t="n">
+      <c r="KW96" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KX96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -90763,8 +91051,11 @@
       <c r="KV97" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KW97" t="n">
+      <c r="KW97" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KX97" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -91694,8 +91985,11 @@
       <c r="KV98" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KW98" t="n">
+      <c r="KW98" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KX98" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -92625,8 +92919,11 @@
       <c r="KV99" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KW99" t="n">
+      <c r="KW99" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KX99" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -93556,7 +93853,10 @@
       <c r="KV100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KW100" t="n">
+      <c r="KW100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KX100" t="n">
         <v>4</v>
       </c>
     </row>
@@ -94487,8 +94787,11 @@
       <c r="KV101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KW101" t="n">
+      <c r="KW101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KX101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -95418,8 +95721,11 @@
       <c r="KV102" s="2" t="n">
         <v>42.9</v>
       </c>
-      <c r="KW102" t="n">
+      <c r="KW102" s="2" t="n">
         <v>56.2</v>
+      </c>
+      <c r="KX102" t="n">
+        <v>55.6</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Collingwood_stats.xlsx
+++ b/AFL_ML/Data/Collingwood_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KX102"/>
+  <dimension ref="A1:KY102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IN24" activeCellId="0" sqref="IN24"/>
@@ -1390,8 +1390,11 @@
       <c r="KW1" s="2" t="n">
         <v>10752</v>
       </c>
-      <c r="KX1" t="n">
+      <c r="KX1" s="2" t="n">
         <v>10762</v>
+      </c>
+      <c r="KY1" t="n">
+        <v>10770</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2324,7 +2327,10 @@
       <c r="KW2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KX2" t="n">
+      <c r="KX2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KY2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3258,8 +3264,11 @@
       <c r="KW3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KX3" t="n">
+      <c r="KX3" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4192,7 +4201,10 @@
       <c r="KW4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KX4" t="n">
+      <c r="KX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5126,7 +5138,10 @@
       <c r="KW5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KX5" t="n">
+      <c r="KX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6060,8 +6075,11 @@
       <c r="KW6" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="KX6" t="n">
+      <c r="KX6" s="2" t="n">
         <v>135</v>
+      </c>
+      <c r="KY6" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6994,8 +7012,11 @@
       <c r="KW7" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="KX7" t="n">
+      <c r="KX7" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KY7" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7928,8 +7949,11 @@
       <c r="KW8" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KX8" t="n">
+      <c r="KX8" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="KY8" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8862,7 +8886,10 @@
       <c r="KW9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KX9" t="n">
+      <c r="KX9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KY9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9796,8 +9823,11 @@
       <c r="KW10" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KX10" t="n">
+      <c r="KX10" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KY10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10730,8 +10760,11 @@
       <c r="KW11" s="2" t="n">
         <v>229</v>
       </c>
-      <c r="KX11" t="n">
+      <c r="KX11" s="2" t="n">
         <v>209</v>
+      </c>
+      <c r="KY11" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11664,8 +11697,11 @@
       <c r="KW12" s="2" t="n">
         <v>143</v>
       </c>
-      <c r="KX12" t="n">
+      <c r="KX12" s="2" t="n">
         <v>143</v>
+      </c>
+      <c r="KY12" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12598,8 +12634,11 @@
       <c r="KW13" s="2" t="n">
         <v>372</v>
       </c>
-      <c r="KX13" t="n">
+      <c r="KX13" s="2" t="n">
         <v>352</v>
+      </c>
+      <c r="KY13" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13532,8 +13571,11 @@
       <c r="KW14" s="2" t="n">
         <v>1.6</v>
       </c>
-      <c r="KX14" t="n">
+      <c r="KX14" s="2" t="n">
         <v>1.46</v>
+      </c>
+      <c r="KY14" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14466,8 +14508,11 @@
       <c r="KW15" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="KX15" t="n">
+      <c r="KX15" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="KY15" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15400,8 +15445,11 @@
       <c r="KW16" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KX16" t="n">
+      <c r="KX16" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KY16" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16334,8 +16382,11 @@
       <c r="KW17" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KX17" t="n">
+      <c r="KX17" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KY17" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -17268,8 +17319,11 @@
       <c r="KW18" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KX18" t="n">
+      <c r="KX18" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KY18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -18202,8 +18256,11 @@
       <c r="KW19" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KX19" t="n">
+      <c r="KX19" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KY19" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -19136,8 +19193,11 @@
       <c r="KW20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KX20" t="n">
+      <c r="KX20" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KY20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -20070,8 +20130,11 @@
       <c r="KW21" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KX21" t="n">
+      <c r="KX21" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KY21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -21004,8 +21067,11 @@
       <c r="KW22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KX22" t="n">
+      <c r="KX22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KY22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21938,8 +22004,11 @@
       <c r="KW23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KX23" t="n">
+      <c r="KX23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KY23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22872,8 +22941,11 @@
       <c r="KW24" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KX24" t="n">
+      <c r="KX24" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="KY24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23806,8 +23878,11 @@
       <c r="KW25" s="2" t="n">
         <v>63.3</v>
       </c>
-      <c r="KX25" t="n">
+      <c r="KX25" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="KY25" t="n">
+        <v>34.8</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24740,8 +24815,11 @@
       <c r="KW26" s="2" t="n">
         <v>19.58</v>
       </c>
-      <c r="KX26" t="n">
+      <c r="KX26" s="2" t="n">
         <v>16.76</v>
+      </c>
+      <c r="KY26" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25674,8 +25752,11 @@
       <c r="KW27" s="2" t="n">
         <v>12.4</v>
       </c>
-      <c r="KX27" t="n">
+      <c r="KX27" s="2" t="n">
         <v>11.73</v>
+      </c>
+      <c r="KY27" t="n">
+        <v>17.39</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26608,8 +26689,11 @@
       <c r="KW28" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KX28" t="n">
+      <c r="KX28" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KY28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27542,8 +27626,11 @@
       <c r="KW29" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KX29" t="n">
+      <c r="KX29" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KY29" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28476,8 +28563,11 @@
       <c r="KW30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KX30" t="n">
+      <c r="KX30" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KY30" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29410,8 +29500,11 @@
       <c r="KW31" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KX31" t="n">
+      <c r="KX31" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KY31" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -30344,8 +30437,11 @@
       <c r="KW32" s="2" t="n">
         <v>2.07</v>
       </c>
-      <c r="KX32" t="n">
+      <c r="KX32" s="2" t="n">
         <v>1.9</v>
+      </c>
+      <c r="KY32" t="n">
+        <v>2.57</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -31278,8 +31374,11 @@
       <c r="KW33" s="2" t="n">
         <v>3.26</v>
       </c>
-      <c r="KX33" t="n">
+      <c r="KX33" s="2" t="n">
         <v>2.71</v>
+      </c>
+      <c r="KY33" t="n">
+        <v>7.38</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -32212,8 +32311,11 @@
       <c r="KW34" s="2" t="n">
         <v>43.5</v>
       </c>
-      <c r="KX34" t="n">
+      <c r="KX34" s="2" t="n">
         <v>49.1</v>
+      </c>
+      <c r="KY34" t="n">
+        <v>30.5</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -33146,8 +33248,11 @@
       <c r="KW35" s="2" t="n">
         <v>30.6</v>
       </c>
-      <c r="KX35" t="n">
+      <c r="KX35" s="2" t="n">
         <v>36.8</v>
+      </c>
+      <c r="KY35" t="n">
+        <v>13.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -34080,8 +34185,11 @@
       <c r="KW36" s="2" t="n">
         <v>188.4</v>
       </c>
-      <c r="KX36" t="n">
+      <c r="KX36" s="2" t="n">
         <v>188.9</v>
+      </c>
+      <c r="KY36" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -35014,8 +35122,11 @@
       <c r="KW37" s="2" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="KX37" t="n">
+      <c r="KX37" s="2" t="n">
         <v>88.5</v>
+      </c>
+      <c r="KY37" t="n">
+        <v>87.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35948,8 +36059,11 @@
       <c r="KW38" s="2" t="n">
         <v>27.33</v>
       </c>
-      <c r="KX38" t="n">
+      <c r="KX38" s="2" t="n">
         <v>27.8</v>
+      </c>
+      <c r="KY38" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -36882,8 +36996,11 @@
       <c r="KW39" s="2" t="n">
         <v>128.6</v>
       </c>
-      <c r="KX39" t="n">
+      <c r="KX39" s="2" t="n">
         <v>121.1</v>
+      </c>
+      <c r="KY39" t="n">
+        <v>118.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -37816,8 +37933,11 @@
       <c r="KW40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KX40" t="n">
+      <c r="KX40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KY40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -38750,8 +38870,11 @@
       <c r="KW41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KX41" t="n">
+      <c r="KX41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KY41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -39684,7 +39807,10 @@
       <c r="KW42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KX42" t="n">
+      <c r="KX42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KY42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -40618,7 +40744,10 @@
       <c r="KW43" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KX43" t="n">
+      <c r="KX43" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KY43" t="n">
         <v>9</v>
       </c>
     </row>
@@ -41552,8 +41681,11 @@
       <c r="KW44" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="KX44" t="n">
+      <c r="KX44" s="2" t="n">
         <v>155</v>
+      </c>
+      <c r="KY44" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -42486,8 +42618,11 @@
       <c r="KW45" s="2" t="n">
         <v>233</v>
       </c>
-      <c r="KX45" t="n">
+      <c r="KX45" s="2" t="n">
         <v>197</v>
+      </c>
+      <c r="KY45" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -43420,8 +43555,11 @@
       <c r="KW46" s="2" t="n">
         <v>286</v>
       </c>
-      <c r="KX46" t="n">
+      <c r="KX46" s="2" t="n">
         <v>253</v>
+      </c>
+      <c r="KY46" t="n">
+        <v>268</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -44354,8 +44492,11 @@
       <c r="KW47" s="2" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="KX47" t="n">
+      <c r="KX47" s="2" t="n">
         <v>71.90000000000001</v>
+      </c>
+      <c r="KY47" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -45288,8 +45429,11 @@
       <c r="KW48" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KX48" t="n">
+      <c r="KX48" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KY48" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -46222,8 +46366,11 @@
       <c r="KW49" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KX49" t="n">
+      <c r="KX49" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KY49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -47156,8 +47303,11 @@
       <c r="KW50" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KX50" t="n">
+      <c r="KX50" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KY50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -48090,8 +48240,11 @@
       <c r="KW51" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KX51" t="n">
+      <c r="KX51" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KY51" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -49024,8 +49177,11 @@
       <c r="KW52" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KX52" t="n">
+      <c r="KX52" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KY52" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -49958,8 +50114,11 @@
       <c r="KW53" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KX53" t="n">
+      <c r="KX53" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KY53" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -50892,8 +51051,11 @@
       <c r="KW54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KX54" t="n">
+      <c r="KX54" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KY54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -51826,8 +51988,11 @@
       <c r="KW55" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KX55" t="n">
+      <c r="KX55" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KY55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -52760,8 +52925,11 @@
       <c r="KW56" s="2" t="n">
         <v>94.7</v>
       </c>
-      <c r="KX56" t="n">
+      <c r="KX56" s="2" t="n">
         <v>76.2</v>
+      </c>
+      <c r="KY56" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -53694,8 +53862,11 @@
       <c r="KW57" s="2" t="n">
         <v>182</v>
       </c>
-      <c r="KX57" t="n">
+      <c r="KX57" s="2" t="n">
         <v>179</v>
+      </c>
+      <c r="KY57" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -54628,8 +54799,11 @@
       <c r="KW58" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="KX58" t="n">
+      <c r="KX58" s="2" t="n">
         <v>123</v>
+      </c>
+      <c r="KY58" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -55562,8 +55736,11 @@
       <c r="KW59" s="2" t="n">
         <v>315</v>
       </c>
-      <c r="KX59" t="n">
+      <c r="KX59" s="2" t="n">
         <v>302</v>
+      </c>
+      <c r="KY59" t="n">
+        <v>356</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -56496,8 +56673,11 @@
       <c r="KW60" s="2" t="n">
         <v>1.37</v>
       </c>
-      <c r="KX60" t="n">
+      <c r="KX60" s="2" t="n">
         <v>1.46</v>
+      </c>
+      <c r="KY60" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -57430,8 +57610,11 @@
       <c r="KW61" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="KX61" t="n">
+      <c r="KX61" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="KY61" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -58364,8 +58547,11 @@
       <c r="KW62" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KX62" t="n">
+      <c r="KX62" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KY62" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -59298,8 +59484,11 @@
       <c r="KW63" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KX63" t="n">
+      <c r="KX63" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KY63" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -60232,8 +60421,11 @@
       <c r="KW64" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KX64" t="n">
+      <c r="KX64" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KY64" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -61166,8 +61358,11 @@
       <c r="KW65" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KX65" t="n">
+      <c r="KX65" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KY65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -62100,8 +62295,11 @@
       <c r="KW66" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KX66" t="n">
+      <c r="KX66" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KY66" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -63034,7 +63232,10 @@
       <c r="KW67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KX67" t="n">
+      <c r="KX67" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KY67" t="n">
         <v>5</v>
       </c>
     </row>
@@ -63968,8 +64169,11 @@
       <c r="KW68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KX68" t="n">
+      <c r="KX68" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KY68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -64902,8 +65106,11 @@
       <c r="KW69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KX69" t="n">
+      <c r="KX69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KY69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -65836,8 +66043,11 @@
       <c r="KW70" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KX70" t="n">
+      <c r="KX70" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KY70" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -66770,8 +66980,11 @@
       <c r="KW71" s="2" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="KX71" t="n">
+      <c r="KX71" s="2" t="n">
         <v>47.4</v>
+      </c>
+      <c r="KY71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -67704,8 +67917,11 @@
       <c r="KW72" s="2" t="n">
         <v>19.69</v>
       </c>
-      <c r="KX72" t="n">
+      <c r="KX72" s="2" t="n">
         <v>33.56</v>
+      </c>
+      <c r="KY72" t="n">
+        <v>50.86</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -68638,8 +68854,11 @@
       <c r="KW73" s="2" t="n">
         <v>13.7</v>
       </c>
-      <c r="KX73" t="n">
+      <c r="KX73" s="2" t="n">
         <v>15.89</v>
+      </c>
+      <c r="KY73" t="n">
+        <v>25.43</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -69572,8 +69791,11 @@
       <c r="KW74" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KX74" t="n">
+      <c r="KX74" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KY74" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -70506,8 +70728,11 @@
       <c r="KW75" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KX75" t="n">
+      <c r="KX75" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="KY75" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -71440,8 +71665,11 @@
       <c r="KW76" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KX76" t="n">
+      <c r="KX76" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KY76" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -72374,8 +72602,11 @@
       <c r="KW77" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KX77" t="n">
+      <c r="KX77" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KY77" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -73308,8 +73539,11 @@
       <c r="KW78" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KX78" t="n">
+      <c r="KX78" s="2" t="n">
         <v>2.47</v>
+      </c>
+      <c r="KY78" t="n">
+        <v>2.86</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -74242,8 +74476,11 @@
       <c r="KW79" s="2" t="n">
         <v>2.88</v>
       </c>
-      <c r="KX79" t="n">
+      <c r="KX79" s="2" t="n">
         <v>5.22</v>
+      </c>
+      <c r="KY79" t="n">
+        <v>5.71</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -75176,8 +75413,11 @@
       <c r="KW80" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KX80" t="n">
+      <c r="KX80" s="2" t="n">
         <v>36.2</v>
+      </c>
+      <c r="KY80" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -76110,8 +76350,11 @@
       <c r="KW81" s="2" t="n">
         <v>34.8</v>
       </c>
-      <c r="KX81" t="n">
+      <c r="KX81" s="2" t="n">
         <v>19.1</v>
+      </c>
+      <c r="KY81" t="n">
+        <v>17.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -77044,8 +77287,11 @@
       <c r="KW82" s="2" t="n">
         <v>188.9</v>
       </c>
-      <c r="KX82" t="n">
+      <c r="KX82" s="2" t="n">
         <v>187.5</v>
+      </c>
+      <c r="KY82" t="n">
+        <v>186.8</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -77978,8 +78224,11 @@
       <c r="KW83" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="KX83" t="n">
+      <c r="KX83" s="2" t="n">
         <v>86.3</v>
+      </c>
+      <c r="KY83" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -78912,8 +79161,11 @@
       <c r="KW84" s="2" t="n">
         <v>27.66</v>
       </c>
-      <c r="KX84" t="n">
+      <c r="KX84" s="2" t="n">
         <v>25.74</v>
+      </c>
+      <c r="KY84" t="n">
+        <v>26.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -79846,8 +80098,11 @@
       <c r="KW85" s="2" t="n">
         <v>136.8</v>
       </c>
-      <c r="KX85" t="n">
+      <c r="KX85" s="2" t="n">
         <v>102.9</v>
+      </c>
+      <c r="KY85" t="n">
+        <v>108.4</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -80780,8 +81035,11 @@
       <c r="KW86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KX86" t="n">
+      <c r="KX86" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KY86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -81714,8 +81972,11 @@
       <c r="KW87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KX87" t="n">
+      <c r="KX87" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KY87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -82648,7 +82909,10 @@
       <c r="KW88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KX88" t="n">
+      <c r="KX88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KY88" t="n">
         <v>5</v>
       </c>
     </row>
@@ -83582,8 +83846,11 @@
       <c r="KW89" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KX89" t="n">
+      <c r="KX89" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KY89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -84516,8 +84783,11 @@
       <c r="KW90" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="KX90" t="n">
+      <c r="KX90" s="2" t="n">
         <v>98</v>
+      </c>
+      <c r="KY90" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -85450,8 +85720,11 @@
       <c r="KW91" s="2" t="n">
         <v>170</v>
       </c>
-      <c r="KX91" t="n">
+      <c r="KX91" s="2" t="n">
         <v>199</v>
+      </c>
+      <c r="KY91" t="n">
+        <v>198</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -86384,8 +86657,11 @@
       <c r="KW92" s="2" t="n">
         <v>221</v>
       </c>
-      <c r="KX92" t="n">
+      <c r="KX92" s="2" t="n">
         <v>226</v>
+      </c>
+      <c r="KY92" t="n">
+        <v>249</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -87318,8 +87594,11 @@
       <c r="KW93" s="2" t="n">
         <v>70.2</v>
       </c>
-      <c r="KX93" t="n">
+      <c r="KX93" s="2" t="n">
         <v>74.8</v>
+      </c>
+      <c r="KY93" t="n">
+        <v>69.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -88252,8 +88531,11 @@
       <c r="KW94" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KX94" t="n">
+      <c r="KX94" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="KY94" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -89186,8 +89468,11 @@
       <c r="KW95" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KX95" t="n">
+      <c r="KX95" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KY95" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -90120,8 +90405,11 @@
       <c r="KW96" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KX96" t="n">
+      <c r="KX96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KY96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -91054,8 +91342,11 @@
       <c r="KW97" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KX97" t="n">
+      <c r="KX97" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KY97" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -91988,8 +92279,11 @@
       <c r="KW98" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KX98" t="n">
+      <c r="KX98" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KY98" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -92922,8 +93216,11 @@
       <c r="KW99" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KX99" t="n">
+      <c r="KX99" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KY99" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -93856,8 +94153,11 @@
       <c r="KW100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KX100" t="n">
+      <c r="KX100" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KY100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -94790,7 +95090,10 @@
       <c r="KW101" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KX101" t="n">
+      <c r="KX101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KY101" t="n">
         <v>5</v>
       </c>
     </row>
@@ -95724,8 +96027,11 @@
       <c r="KW102" s="2" t="n">
         <v>56.2</v>
       </c>
-      <c r="KX102" t="n">
+      <c r="KX102" s="2" t="n">
         <v>55.6</v>
+      </c>
+      <c r="KY102" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Collingwood_stats.xlsx
+++ b/AFL_ML/Data/Collingwood_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KZ102"/>
+  <dimension ref="A1:LA102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IN24" activeCellId="0" sqref="IN24"/>
@@ -1396,8 +1396,11 @@
       <c r="KY1" s="2" t="n">
         <v>10770</v>
       </c>
-      <c r="KZ1" t="n">
+      <c r="KZ1" s="2" t="n">
         <v>10778</v>
+      </c>
+      <c r="LA1" t="n">
+        <v>10961</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2336,7 +2339,10 @@
       <c r="KY2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KZ2" t="n">
+      <c r="KZ2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LA2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3276,8 +3282,11 @@
       <c r="KY3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KZ3" t="n">
+      <c r="KZ3" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4216,8 +4225,11 @@
       <c r="KY4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KZ4" t="n">
+      <c r="KZ4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5156,7 +5168,10 @@
       <c r="KY5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KZ5" t="n">
+      <c r="KZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6096,8 +6111,11 @@
       <c r="KY6" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KZ6" t="n">
+      <c r="KZ6" s="2" t="n">
         <v>83</v>
+      </c>
+      <c r="LA6" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -7036,8 +7054,11 @@
       <c r="KY7" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KZ7" t="n">
+      <c r="KZ7" s="2" t="n">
         <v>116</v>
+      </c>
+      <c r="LA7" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7976,8 +7997,11 @@
       <c r="KY8" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KZ8" t="n">
+      <c r="KZ8" s="2" t="n">
         <v>-33</v>
+      </c>
+      <c r="LA8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8916,8 +8940,11 @@
       <c r="KY9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KZ9" t="n">
+      <c r="KZ9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="LA9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9856,8 +9883,11 @@
       <c r="KY10" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KZ10" t="n">
+      <c r="KZ10" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="LA10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10796,8 +10826,11 @@
       <c r="KY11" s="2" t="n">
         <v>229</v>
       </c>
-      <c r="KZ11" t="n">
+      <c r="KZ11" s="2" t="n">
         <v>197</v>
+      </c>
+      <c r="LA11" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11736,8 +11769,11 @@
       <c r="KY12" s="2" t="n">
         <v>171</v>
       </c>
-      <c r="KZ12" t="n">
+      <c r="KZ12" s="2" t="n">
         <v>170</v>
+      </c>
+      <c r="LA12" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12676,8 +12712,11 @@
       <c r="KY13" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="KZ13" t="n">
+      <c r="KZ13" s="2" t="n">
         <v>367</v>
+      </c>
+      <c r="LA13" t="n">
+        <v>392</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13616,8 +13655,11 @@
       <c r="KY14" s="2" t="n">
         <v>1.34</v>
       </c>
-      <c r="KZ14" t="n">
+      <c r="KZ14" s="2" t="n">
         <v>1.16</v>
+      </c>
+      <c r="LA14" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14556,8 +14598,11 @@
       <c r="KY15" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KZ15" t="n">
+      <c r="KZ15" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="LA15" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15496,8 +15541,11 @@
       <c r="KY16" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KZ16" t="n">
+      <c r="KZ16" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="LA16" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16436,8 +16484,11 @@
       <c r="KY17" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KZ17" t="n">
+      <c r="KZ17" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="LA17" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -17376,8 +17427,11 @@
       <c r="KY18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KZ18" t="n">
+      <c r="KZ18" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="LA18" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -18316,8 +18370,11 @@
       <c r="KY19" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KZ19" t="n">
+      <c r="KZ19" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="LA19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -19256,8 +19313,11 @@
       <c r="KY20" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KZ20" t="n">
+      <c r="KZ20" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="LA20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -20196,8 +20256,11 @@
       <c r="KY21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KZ21" t="n">
+      <c r="KZ21" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LA21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -21136,8 +21199,11 @@
       <c r="KY22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KZ22" t="n">
+      <c r="KZ22" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="LA22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -22076,7 +22142,10 @@
       <c r="KY23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KZ23" t="n">
+      <c r="KZ23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LA23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -23016,8 +23085,11 @@
       <c r="KY24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KZ24" t="n">
+      <c r="KZ24" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="LA24" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23956,8 +24028,11 @@
       <c r="KY25" s="2" t="n">
         <v>34.8</v>
       </c>
-      <c r="KZ25" t="n">
+      <c r="KZ25" s="2" t="n">
         <v>39.3</v>
+      </c>
+      <c r="LA25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24896,8 +24971,11 @@
       <c r="KY26" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KZ26" t="n">
+      <c r="KZ26" s="2" t="n">
         <v>33.36</v>
+      </c>
+      <c r="LA26" t="n">
+        <v>39.2</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25836,8 +25914,11 @@
       <c r="KY27" s="2" t="n">
         <v>17.39</v>
       </c>
-      <c r="KZ27" t="n">
+      <c r="KZ27" s="2" t="n">
         <v>13.11</v>
+      </c>
+      <c r="LA27" t="n">
+        <v>19.6</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26776,8 +26857,11 @@
       <c r="KY28" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KZ28" t="n">
+      <c r="KZ28" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="LA28" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27716,8 +27800,11 @@
       <c r="KY29" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KZ29" t="n">
+      <c r="KZ29" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="LA29" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28656,8 +28743,11 @@
       <c r="KY30" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KZ30" t="n">
+      <c r="KZ30" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="LA30" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29596,8 +29686,11 @@
       <c r="KY31" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KZ31" t="n">
+      <c r="KZ31" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="LA31" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -30536,8 +30629,11 @@
       <c r="KY32" s="2" t="n">
         <v>2.57</v>
       </c>
-      <c r="KZ32" t="n">
+      <c r="KZ32" s="2" t="n">
         <v>2.04</v>
+      </c>
+      <c r="LA32" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -31476,8 +31572,11 @@
       <c r="KY33" s="2" t="n">
         <v>7.38</v>
       </c>
-      <c r="KZ33" t="n">
+      <c r="KZ33" s="2" t="n">
         <v>5.18</v>
+      </c>
+      <c r="LA33" t="n">
+        <v>6.4</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -32416,8 +32515,11 @@
       <c r="KY34" s="2" t="n">
         <v>30.5</v>
       </c>
-      <c r="KZ34" t="n">
+      <c r="KZ34" s="2" t="n">
         <v>43.9</v>
+      </c>
+      <c r="LA34" t="n">
+        <v>26.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -33356,8 +33458,11 @@
       <c r="KY35" s="2" t="n">
         <v>13.6</v>
       </c>
-      <c r="KZ35" t="n">
+      <c r="KZ35" s="2" t="n">
         <v>19.3</v>
+      </c>
+      <c r="LA35" t="n">
+        <v>15.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -34296,8 +34401,11 @@
       <c r="KY36" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="KZ36" t="n">
+      <c r="KZ36" s="2" t="n">
         <v>187.4</v>
+      </c>
+      <c r="LA36" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -35236,8 +35344,11 @@
       <c r="KY37" s="2" t="n">
         <v>87.7</v>
       </c>
-      <c r="KZ37" t="n">
+      <c r="KZ37" s="2" t="n">
         <v>86.90000000000001</v>
+      </c>
+      <c r="LA37" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -36176,8 +36287,11 @@
       <c r="KY38" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KZ38" t="n">
+      <c r="KZ38" s="2" t="n">
         <v>26.8</v>
+      </c>
+      <c r="LA38" t="n">
+        <v>26.74</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -37116,8 +37230,11 @@
       <c r="KY39" s="2" t="n">
         <v>118.3</v>
       </c>
-      <c r="KZ39" t="n">
+      <c r="KZ39" s="2" t="n">
         <v>119</v>
+      </c>
+      <c r="LA39" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -38056,8 +38173,11 @@
       <c r="KY40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KZ40" t="n">
+      <c r="KZ40" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LA40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -38996,7 +39116,10 @@
       <c r="KY41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KZ41" t="n">
+      <c r="KZ41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LA41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39936,8 +40059,11 @@
       <c r="KY42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KZ42" t="n">
+      <c r="KZ42" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="LA42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -40876,7 +41002,10 @@
       <c r="KY43" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KZ43" t="n">
+      <c r="KZ43" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LA43" t="n">
         <v>9</v>
       </c>
     </row>
@@ -41816,8 +41945,11 @@
       <c r="KY44" s="2" t="n">
         <v>161</v>
       </c>
-      <c r="KZ44" t="n">
+      <c r="KZ44" s="2" t="n">
         <v>136</v>
+      </c>
+      <c r="LA44" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -42756,8 +42888,11 @@
       <c r="KY45" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="KZ45" t="n">
+      <c r="KZ45" s="2" t="n">
         <v>232</v>
+      </c>
+      <c r="LA45" t="n">
+        <v>256</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -43696,8 +43831,11 @@
       <c r="KY46" s="2" t="n">
         <v>268</v>
       </c>
-      <c r="KZ46" t="n">
+      <c r="KZ46" s="2" t="n">
         <v>267</v>
+      </c>
+      <c r="LA46" t="n">
+        <v>298</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -44636,8 +44774,11 @@
       <c r="KY47" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="KZ47" t="n">
+      <c r="KZ47" s="2" t="n">
         <v>72.8</v>
+      </c>
+      <c r="LA47" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -45576,8 +45717,11 @@
       <c r="KY48" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KZ48" t="n">
+      <c r="KZ48" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="LA48" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -46516,8 +46660,11 @@
       <c r="KY49" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KZ49" t="n">
+      <c r="KZ49" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="LA49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -47456,7 +47603,10 @@
       <c r="KY50" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KZ50" t="n">
+      <c r="KZ50" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LA50" t="n">
         <v>10</v>
       </c>
     </row>
@@ -48396,8 +48546,11 @@
       <c r="KY51" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KZ51" t="n">
+      <c r="KZ51" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="LA51" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -49336,8 +49489,11 @@
       <c r="KY52" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KZ52" t="n">
+      <c r="KZ52" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="LA52" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -50276,8 +50432,11 @@
       <c r="KY53" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KZ53" t="n">
+      <c r="KZ53" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="LA53" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -51216,8 +51375,11 @@
       <c r="KY54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KZ54" t="n">
+      <c r="KZ54" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LA54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -52156,8 +52318,11 @@
       <c r="KY55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KZ55" t="n">
+      <c r="KZ55" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LA55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -53096,8 +53261,11 @@
       <c r="KY56" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="KZ56" t="n">
+      <c r="KZ56" s="2" t="n">
         <v>45.5</v>
+      </c>
+      <c r="LA56" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -54036,8 +54204,11 @@
       <c r="KY57" s="2" t="n">
         <v>219</v>
       </c>
-      <c r="KZ57" t="n">
+      <c r="KZ57" s="2" t="n">
         <v>215</v>
+      </c>
+      <c r="LA57" t="n">
+        <v>228</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -54976,8 +55147,11 @@
       <c r="KY58" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="KZ58" t="n">
+      <c r="KZ58" s="2" t="n">
         <v>129</v>
+      </c>
+      <c r="LA58" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -55916,8 +56090,11 @@
       <c r="KY59" s="2" t="n">
         <v>356</v>
       </c>
-      <c r="KZ59" t="n">
+      <c r="KZ59" s="2" t="n">
         <v>344</v>
+      </c>
+      <c r="LA59" t="n">
+        <v>408</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -56856,8 +57033,11 @@
       <c r="KY60" s="2" t="n">
         <v>1.6</v>
       </c>
-      <c r="KZ60" t="n">
+      <c r="KZ60" s="2" t="n">
         <v>1.67</v>
+      </c>
+      <c r="LA60" t="n">
+        <v>1.27</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -57796,8 +57976,11 @@
       <c r="KY61" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="KZ61" t="n">
+      <c r="KZ61" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="LA61" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -58736,8 +58919,11 @@
       <c r="KY62" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KZ62" t="n">
+      <c r="KZ62" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="LA62" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -59676,8 +59862,11 @@
       <c r="KY63" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KZ63" t="n">
+      <c r="KZ63" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="LA63" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -60616,8 +60805,11 @@
       <c r="KY64" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KZ64" t="n">
+      <c r="KZ64" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="LA64" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -61556,8 +61748,11 @@
       <c r="KY65" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KZ65" t="n">
+      <c r="KZ65" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="LA65" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -62496,8 +62691,11 @@
       <c r="KY66" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KZ66" t="n">
+      <c r="KZ66" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="LA66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -63436,8 +63634,11 @@
       <c r="KY67" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KZ67" t="n">
+      <c r="KZ67" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="LA67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -64376,8 +64577,11 @@
       <c r="KY68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KZ68" t="n">
+      <c r="KZ68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LA68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -65316,8 +65520,11 @@
       <c r="KY69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KZ69" t="n">
+      <c r="KZ69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="LA69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -66256,8 +66463,11 @@
       <c r="KY70" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KZ70" t="n">
+      <c r="KZ70" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="LA70" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -67196,8 +67406,11 @@
       <c r="KY71" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KZ71" t="n">
+      <c r="KZ71" s="2" t="n">
         <v>69.2</v>
+      </c>
+      <c r="LA71" t="n">
+        <v>47.4</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -68136,8 +68349,11 @@
       <c r="KY72" s="2" t="n">
         <v>50.86</v>
       </c>
-      <c r="KZ72" t="n">
+      <c r="KZ72" s="2" t="n">
         <v>19.11</v>
+      </c>
+      <c r="LA72" t="n">
+        <v>45.33</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -69076,8 +69292,11 @@
       <c r="KY73" s="2" t="n">
         <v>25.43</v>
       </c>
-      <c r="KZ73" t="n">
+      <c r="KZ73" s="2" t="n">
         <v>13.23</v>
+      </c>
+      <c r="LA73" t="n">
+        <v>21.47</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -70016,8 +70235,11 @@
       <c r="KY74" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KZ74" t="n">
+      <c r="KZ74" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="LA74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -70956,8 +71178,11 @@
       <c r="KY75" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KZ75" t="n">
+      <c r="KZ75" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="LA75" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -71896,8 +72121,11 @@
       <c r="KY76" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KZ76" t="n">
+      <c r="KZ76" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="LA76" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -72836,8 +73064,11 @@
       <c r="KY77" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KZ77" t="n">
+      <c r="KZ77" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="LA77" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -73776,8 +74007,11 @@
       <c r="KY78" s="2" t="n">
         <v>2.86</v>
       </c>
-      <c r="KZ78" t="n">
+      <c r="KZ78" s="2" t="n">
         <v>2.08</v>
+      </c>
+      <c r="LA78" t="n">
+        <v>2.63</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -74716,8 +74950,11 @@
       <c r="KY79" s="2" t="n">
         <v>5.71</v>
       </c>
-      <c r="KZ79" t="n">
+      <c r="KZ79" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="LA79" t="n">
+        <v>5.56</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -75656,8 +75893,11 @@
       <c r="KY80" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KZ80" t="n">
+      <c r="KZ80" s="2" t="n">
         <v>46.3</v>
+      </c>
+      <c r="LA80" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -76596,8 +76836,11 @@
       <c r="KY81" s="2" t="n">
         <v>17.5</v>
       </c>
-      <c r="KZ81" t="n">
+      <c r="KZ81" s="2" t="n">
         <v>33.3</v>
+      </c>
+      <c r="LA81" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -77536,8 +77779,11 @@
       <c r="KY82" s="2" t="n">
         <v>186.8</v>
       </c>
-      <c r="KZ82" t="n">
+      <c r="KZ82" s="2" t="n">
         <v>188.4</v>
+      </c>
+      <c r="LA82" t="n">
+        <v>187.8</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -78476,8 +78722,11 @@
       <c r="KY83" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="KZ83" t="n">
+      <c r="KZ83" s="2" t="n">
         <v>88.59999999999999</v>
+      </c>
+      <c r="LA83" t="n">
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -79416,8 +79665,11 @@
       <c r="KY84" s="2" t="n">
         <v>26.16</v>
       </c>
-      <c r="KZ84" t="n">
+      <c r="KZ84" s="2" t="n">
         <v>25.74</v>
+      </c>
+      <c r="LA84" t="n">
+        <v>24.74</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -80356,8 +80608,11 @@
       <c r="KY85" s="2" t="n">
         <v>108.4</v>
       </c>
-      <c r="KZ85" t="n">
+      <c r="KZ85" s="2" t="n">
         <v>105.2</v>
+      </c>
+      <c r="LA85" t="n">
+        <v>81.59999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -81296,8 +81551,11 @@
       <c r="KY86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KZ86" t="n">
+      <c r="KZ86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LA86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -82236,8 +82494,11 @@
       <c r="KY87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KZ87" t="n">
+      <c r="KZ87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="LA87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -83176,7 +83437,10 @@
       <c r="KY88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KZ88" t="n">
+      <c r="KZ88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LA88" t="n">
         <v>6</v>
       </c>
     </row>
@@ -84116,8 +84380,11 @@
       <c r="KY89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KZ89" t="n">
+      <c r="KZ89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LA89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -85056,8 +85323,11 @@
       <c r="KY90" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="KZ90" t="n">
+      <c r="KZ90" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="LA90" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -85996,8 +86266,11 @@
       <c r="KY91" s="2" t="n">
         <v>198</v>
       </c>
-      <c r="KZ91" t="n">
+      <c r="KZ91" s="2" t="n">
         <v>190</v>
+      </c>
+      <c r="LA91" t="n">
+        <v>256</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -86936,8 +87209,11 @@
       <c r="KY92" s="2" t="n">
         <v>249</v>
       </c>
-      <c r="KZ92" t="n">
+      <c r="KZ92" s="2" t="n">
         <v>245</v>
+      </c>
+      <c r="LA92" t="n">
+        <v>299</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -87876,8 +88152,11 @@
       <c r="KY93" s="2" t="n">
         <v>69.90000000000001</v>
       </c>
-      <c r="KZ93" t="n">
+      <c r="KZ93" s="2" t="n">
         <v>71.2</v>
+      </c>
+      <c r="LA93" t="n">
+        <v>73.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -88816,8 +89095,11 @@
       <c r="KY94" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KZ94" t="n">
+      <c r="KZ94" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="LA94" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -89756,8 +90038,11 @@
       <c r="KY95" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KZ95" t="n">
+      <c r="KZ95" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LA95" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -90696,8 +90981,11 @@
       <c r="KY96" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KZ96" t="n">
+      <c r="KZ96" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="LA96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -91636,8 +91924,11 @@
       <c r="KY97" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KZ97" t="n">
+      <c r="KZ97" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="LA97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -92576,8 +92867,11 @@
       <c r="KY98" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KZ98" t="n">
+      <c r="KZ98" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="LA98" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -93516,8 +93810,11 @@
       <c r="KY99" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KZ99" t="n">
+      <c r="KZ99" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="LA99" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -94456,8 +94753,11 @@
       <c r="KY100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KZ100" t="n">
+      <c r="KZ100" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="LA100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -95396,8 +95696,11 @@
       <c r="KY101" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KZ101" t="n">
+      <c r="KZ101" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="LA101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -96336,8 +96639,11 @@
       <c r="KY102" s="2" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="KZ102" t="n">
+      <c r="KZ102" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="LA102" t="n">
+        <v>77.8</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Collingwood_stats.xlsx
+++ b/AFL_ML/Data/Collingwood_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:LA102"/>
+  <dimension ref="A1:LD102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IN24" activeCellId="0" sqref="IN24"/>
@@ -1399,8 +1399,17 @@
       <c r="KZ1" s="2" t="n">
         <v>10778</v>
       </c>
-      <c r="LA1" t="n">
+      <c r="LA1" s="2" t="n">
         <v>10961</v>
+      </c>
+      <c r="LB1" s="2" t="n">
+        <v>10804</v>
+      </c>
+      <c r="LC1" s="2" t="n">
+        <v>10804</v>
+      </c>
+      <c r="LD1" t="n">
+        <v>10804</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2342,7 +2351,16 @@
       <c r="KZ2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="LA2" t="n">
+      <c r="LA2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LB2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LC2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LD2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3285,8 +3303,17 @@
       <c r="KZ3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="LA3" t="n">
+      <c r="LA3" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LB3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LC3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4228,7 +4255,16 @@
       <c r="KZ4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LA4" t="n">
+      <c r="LA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5171,7 +5207,16 @@
       <c r="KZ5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LA5" t="n">
+      <c r="LA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6114,8 +6159,17 @@
       <c r="KZ6" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="LA6" t="n">
+      <c r="LA6" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="LB6" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="LC6" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="LD6" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -7057,8 +7111,17 @@
       <c r="KZ7" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="LA7" t="n">
+      <c r="LA7" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="LB7" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="LC7" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="LD7" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -8000,8 +8063,17 @@
       <c r="KZ8" s="2" t="n">
         <v>-33</v>
       </c>
-      <c r="LA8" t="n">
+      <c r="LA8" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LB8" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LC8" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LD8" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8943,7 +9015,16 @@
       <c r="KZ9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LA9" t="n">
+      <c r="LA9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LC9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LD9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9886,8 +9967,17 @@
       <c r="KZ10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="LA10" t="n">
+      <c r="LA10" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="LB10" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LC10" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LD10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10829,8 +10919,17 @@
       <c r="KZ11" s="2" t="n">
         <v>197</v>
       </c>
-      <c r="LA11" t="n">
+      <c r="LA11" s="2" t="n">
         <v>226</v>
+      </c>
+      <c r="LB11" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="LC11" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="LD11" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11772,8 +11871,17 @@
       <c r="KZ12" s="2" t="n">
         <v>170</v>
       </c>
-      <c r="LA12" t="n">
+      <c r="LA12" s="2" t="n">
         <v>166</v>
+      </c>
+      <c r="LB12" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="LC12" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="LD12" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12715,8 +12823,17 @@
       <c r="KZ13" s="2" t="n">
         <v>367</v>
       </c>
-      <c r="LA13" t="n">
+      <c r="LA13" s="2" t="n">
         <v>392</v>
+      </c>
+      <c r="LB13" s="2" t="n">
+        <v>393</v>
+      </c>
+      <c r="LC13" s="2" t="n">
+        <v>393</v>
+      </c>
+      <c r="LD13" t="n">
+        <v>393</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13658,8 +13775,17 @@
       <c r="KZ14" s="2" t="n">
         <v>1.16</v>
       </c>
-      <c r="LA14" t="n">
+      <c r="LA14" s="2" t="n">
         <v>1.36</v>
+      </c>
+      <c r="LB14" s="2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="LC14" s="2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="LD14" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14601,8 +14727,17 @@
       <c r="KZ15" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="LA15" t="n">
+      <c r="LA15" s="2" t="n">
         <v>99</v>
+      </c>
+      <c r="LB15" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="LC15" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="LD15" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15544,8 +15679,17 @@
       <c r="KZ16" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="LA16" t="n">
+      <c r="LA16" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="LB16" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="LC16" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="LD16" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -16487,8 +16631,17 @@
       <c r="KZ17" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="LA17" t="n">
+      <c r="LA17" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="LB17" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="LC17" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="LD17" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -17430,8 +17583,17 @@
       <c r="KZ18" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="LA18" t="n">
+      <c r="LA18" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="LB18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LC18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LD18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -18373,8 +18535,17 @@
       <c r="KZ19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="LA19" t="n">
+      <c r="LA19" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="LB19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="LC19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="LD19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -19316,8 +19487,17 @@
       <c r="KZ20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="LA20" t="n">
+      <c r="LA20" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="LB20" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LC20" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LD20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -20259,7 +20439,16 @@
       <c r="KZ21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LA21" t="n">
+      <c r="LA21" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LB21" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LC21" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LD21" t="n">
         <v>10</v>
       </c>
     </row>
@@ -21202,8 +21391,17 @@
       <c r="KZ22" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="LA22" t="n">
+      <c r="LA22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LB22" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LC22" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LD22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -22145,8 +22343,17 @@
       <c r="KZ23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LA23" t="n">
+      <c r="LA23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="LB23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LC23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LD23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -23088,8 +23295,17 @@
       <c r="KZ24" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="LA24" t="n">
+      <c r="LA24" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="LB24" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="LC24" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="LD24" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -24031,8 +24247,17 @@
       <c r="KZ25" s="2" t="n">
         <v>39.3</v>
       </c>
-      <c r="LA25" t="n">
+      <c r="LA25" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="LB25" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="LC25" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="LD25" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24974,8 +25199,17 @@
       <c r="KZ26" s="2" t="n">
         <v>33.36</v>
       </c>
-      <c r="LA26" t="n">
+      <c r="LA26" s="2" t="n">
         <v>39.2</v>
+      </c>
+      <c r="LB26" s="2" t="n">
+        <v>30.23</v>
+      </c>
+      <c r="LC26" s="2" t="n">
+        <v>30.23</v>
+      </c>
+      <c r="LD26" t="n">
+        <v>30.23</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25917,8 +26151,17 @@
       <c r="KZ27" s="2" t="n">
         <v>13.11</v>
       </c>
-      <c r="LA27" t="n">
+      <c r="LA27" s="2" t="n">
         <v>19.6</v>
+      </c>
+      <c r="LB27" s="2" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="LC27" s="2" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="LD27" t="n">
+        <v>15.72</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -26860,8 +27103,17 @@
       <c r="KZ28" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="LA28" t="n">
+      <c r="LA28" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="LB28" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="LC28" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="LD28" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -27803,8 +28055,17 @@
       <c r="KZ29" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="LA29" t="n">
+      <c r="LA29" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="LB29" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="LC29" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="LD29" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -28746,8 +29007,17 @@
       <c r="KZ30" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="LA30" t="n">
+      <c r="LA30" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="LB30" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="LC30" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="LD30" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -29689,7 +29959,16 @@
       <c r="KZ31" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="LA31" t="n">
+      <c r="LA31" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="LB31" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="LC31" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="LD31" t="n">
         <v>64</v>
       </c>
     </row>
@@ -30632,8 +30911,17 @@
       <c r="KZ32" s="2" t="n">
         <v>2.04</v>
       </c>
-      <c r="LA32" t="n">
+      <c r="LA32" s="2" t="n">
         <v>3.2</v>
+      </c>
+      <c r="LB32" s="2" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="LC32" s="2" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="LD32" t="n">
+        <v>2.56</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -31575,8 +31863,17 @@
       <c r="KZ33" s="2" t="n">
         <v>5.18</v>
       </c>
-      <c r="LA33" t="n">
+      <c r="LA33" s="2" t="n">
         <v>6.4</v>
+      </c>
+      <c r="LB33" s="2" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="LC33" s="2" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="LD33" t="n">
+        <v>4.92</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -32518,8 +32815,17 @@
       <c r="KZ34" s="2" t="n">
         <v>43.9</v>
       </c>
-      <c r="LA34" t="n">
+      <c r="LA34" s="2" t="n">
         <v>26.6</v>
+      </c>
+      <c r="LB34" s="2" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="LC34" s="2" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="LD34" t="n">
+        <v>32.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -33461,8 +33767,17 @@
       <c r="KZ35" s="2" t="n">
         <v>19.3</v>
       </c>
-      <c r="LA35" t="n">
+      <c r="LA35" s="2" t="n">
         <v>15.6</v>
+      </c>
+      <c r="LB35" s="2" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="LC35" s="2" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="LD35" t="n">
+        <v>20.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -34404,8 +34719,17 @@
       <c r="KZ36" s="2" t="n">
         <v>187.4</v>
       </c>
-      <c r="LA36" t="n">
+      <c r="LA36" s="2" t="n">
         <v>187.3</v>
+      </c>
+      <c r="LB36" s="2" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="LC36" s="2" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="LD36" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -35347,8 +35671,17 @@
       <c r="KZ37" s="2" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="LA37" t="n">
+      <c r="LA37" s="2" t="n">
         <v>86.3</v>
+      </c>
+      <c r="LB37" s="2" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="LC37" s="2" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="LD37" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -36290,8 +36623,17 @@
       <c r="KZ38" s="2" t="n">
         <v>26.8</v>
       </c>
-      <c r="LA38" t="n">
+      <c r="LA38" s="2" t="n">
         <v>26.74</v>
+      </c>
+      <c r="LB38" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="LC38" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="LD38" t="n">
+        <v>26.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -37233,8 +37575,17 @@
       <c r="KZ39" s="2" t="n">
         <v>119</v>
       </c>
-      <c r="LA39" t="n">
+      <c r="LA39" s="2" t="n">
         <v>115</v>
+      </c>
+      <c r="LB39" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="LC39" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="LD39" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -38176,8 +38527,17 @@
       <c r="KZ40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LA40" t="n">
+      <c r="LA40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LB40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LC40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LD40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -39119,7 +39479,16 @@
       <c r="KZ41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="LA41" t="n">
+      <c r="LA41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LB41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LC41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LD41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40062,8 +40431,17 @@
       <c r="KZ42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LA42" t="n">
+      <c r="LA42" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="LB42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LC42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LD42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -41005,8 +41383,17 @@
       <c r="KZ43" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="LA43" t="n">
+      <c r="LA43" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="LB43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LC43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LD43" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -41948,8 +42335,17 @@
       <c r="KZ44" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="LA44" t="n">
+      <c r="LA44" s="2" t="n">
         <v>126</v>
+      </c>
+      <c r="LB44" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="LC44" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="LD44" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -42891,8 +43287,17 @@
       <c r="KZ45" s="2" t="n">
         <v>232</v>
       </c>
-      <c r="LA45" t="n">
+      <c r="LA45" s="2" t="n">
         <v>256</v>
+      </c>
+      <c r="LB45" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="LC45" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="LD45" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -43834,8 +44239,17 @@
       <c r="KZ46" s="2" t="n">
         <v>267</v>
       </c>
-      <c r="LA46" t="n">
+      <c r="LA46" s="2" t="n">
         <v>298</v>
+      </c>
+      <c r="LB46" s="2" t="n">
+        <v>309</v>
+      </c>
+      <c r="LC46" s="2" t="n">
+        <v>309</v>
+      </c>
+      <c r="LD46" t="n">
+        <v>309</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -44777,8 +45191,17 @@
       <c r="KZ47" s="2" t="n">
         <v>72.8</v>
       </c>
-      <c r="LA47" t="n">
+      <c r="LA47" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="LB47" s="2" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="LC47" s="2" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="LD47" t="n">
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -45720,8 +46143,17 @@
       <c r="KZ48" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="LA48" t="n">
+      <c r="LA48" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="LB48" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="LC48" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="LD48" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -46663,8 +47095,17 @@
       <c r="KZ49" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="LA49" t="n">
+      <c r="LA49" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="LB49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LC49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LD49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -47606,8 +48047,17 @@
       <c r="KZ50" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="LA50" t="n">
+      <c r="LA50" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="LB50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LC50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LD50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -48549,8 +48999,17 @@
       <c r="KZ51" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="LA51" t="n">
+      <c r="LA51" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="LB51" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="LC51" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="LD51" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -49492,8 +49951,17 @@
       <c r="KZ52" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="LA52" t="n">
+      <c r="LA52" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="LB52" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="LC52" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="LD52" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -50435,8 +50903,17 @@
       <c r="KZ53" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="LA53" t="n">
+      <c r="LA53" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="LB53" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="LC53" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="LD53" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -51378,8 +51855,17 @@
       <c r="KZ54" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="LA54" t="n">
+      <c r="LA54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LB54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LC54" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LD54" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -52321,7 +52807,16 @@
       <c r="KZ55" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LA55" t="n">
+      <c r="LA55" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LB55" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LC55" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LD55" t="n">
         <v>10</v>
       </c>
     </row>
@@ -53264,8 +53759,17 @@
       <c r="KZ56" s="2" t="n">
         <v>45.5</v>
       </c>
-      <c r="LA56" t="n">
+      <c r="LA56" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="LB56" s="2" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="LC56" s="2" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="LD56" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -54207,8 +54711,17 @@
       <c r="KZ57" s="2" t="n">
         <v>215</v>
       </c>
-      <c r="LA57" t="n">
+      <c r="LA57" s="2" t="n">
         <v>228</v>
+      </c>
+      <c r="LB57" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="LC57" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="LD57" t="n">
+        <v>176</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -55150,8 +55663,17 @@
       <c r="KZ58" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="LA58" t="n">
+      <c r="LA58" s="2" t="n">
         <v>180</v>
+      </c>
+      <c r="LB58" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="LC58" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="LD58" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -56093,8 +56615,17 @@
       <c r="KZ59" s="2" t="n">
         <v>344</v>
       </c>
-      <c r="LA59" t="n">
+      <c r="LA59" s="2" t="n">
         <v>408</v>
+      </c>
+      <c r="LB59" s="2" t="n">
+        <v>326</v>
+      </c>
+      <c r="LC59" s="2" t="n">
+        <v>326</v>
+      </c>
+      <c r="LD59" t="n">
+        <v>326</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -57036,8 +57567,17 @@
       <c r="KZ60" s="2" t="n">
         <v>1.67</v>
       </c>
-      <c r="LA60" t="n">
+      <c r="LA60" s="2" t="n">
         <v>1.27</v>
+      </c>
+      <c r="LB60" s="2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="LC60" s="2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="LD60" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -57979,8 +58519,17 @@
       <c r="KZ61" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="LA61" t="n">
+      <c r="LA61" s="2" t="n">
         <v>103</v>
+      </c>
+      <c r="LB61" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="LC61" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="LD61" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -58922,8 +59471,17 @@
       <c r="KZ62" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="LA62" t="n">
+      <c r="LA62" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="LB62" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="LC62" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="LD62" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -59865,8 +60423,17 @@
       <c r="KZ63" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="LA63" t="n">
+      <c r="LA63" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="LB63" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="LC63" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="LD63" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -60808,8 +61375,17 @@
       <c r="KZ64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="LA64" t="n">
+      <c r="LA64" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="LB64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="LC64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="LD64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -61751,8 +62327,17 @@
       <c r="KZ65" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="LA65" t="n">
+      <c r="LA65" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="LB65" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LC65" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LD65" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -62694,8 +63279,17 @@
       <c r="KZ66" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="LA66" t="n">
+      <c r="LA66" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="LB66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LC66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LD66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -63637,8 +64231,17 @@
       <c r="KZ67" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="LA67" t="n">
+      <c r="LA67" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LB67" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LC67" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LD67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -64580,7 +65183,16 @@
       <c r="KZ68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LA68" t="n">
+      <c r="LA68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LB68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LC68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LD68" t="n">
         <v>10</v>
       </c>
     </row>
@@ -65523,8 +66135,17 @@
       <c r="KZ69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LA69" t="n">
+      <c r="LA69" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="LB69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LC69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LD69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -66466,8 +67087,17 @@
       <c r="KZ70" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="LA70" t="n">
+      <c r="LA70" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="LB70" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="LC70" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="LD70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -67409,8 +68039,17 @@
       <c r="KZ71" s="2" t="n">
         <v>69.2</v>
       </c>
-      <c r="LA71" t="n">
+      <c r="LA71" s="2" t="n">
         <v>47.4</v>
+      </c>
+      <c r="LB71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="LC71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="LD71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -68352,8 +68991,17 @@
       <c r="KZ72" s="2" t="n">
         <v>19.11</v>
       </c>
-      <c r="LA72" t="n">
+      <c r="LA72" s="2" t="n">
         <v>45.33</v>
+      </c>
+      <c r="LB72" s="2" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="LC72" s="2" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="LD72" t="n">
+        <v>29.64</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -69295,8 +69943,17 @@
       <c r="KZ73" s="2" t="n">
         <v>13.23</v>
       </c>
-      <c r="LA73" t="n">
+      <c r="LA73" s="2" t="n">
         <v>21.47</v>
+      </c>
+      <c r="LB73" s="2" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="LC73" s="2" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="LD73" t="n">
+        <v>14.82</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -70238,8 +70895,17 @@
       <c r="KZ74" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="LA74" t="n">
+      <c r="LA74" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="LB74" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="LC74" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="LD74" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -71181,8 +71847,17 @@
       <c r="KZ75" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="LA75" t="n">
+      <c r="LA75" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="LB75" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LC75" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LD75" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -72124,8 +72799,17 @@
       <c r="KZ76" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="LA76" t="n">
+      <c r="LA76" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="LB76" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="LC76" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="LD76" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -73067,8 +73751,17 @@
       <c r="KZ77" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="LA77" t="n">
+      <c r="LA77" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="LB77" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="LC77" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="LD77" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -74010,8 +74703,17 @@
       <c r="KZ78" s="2" t="n">
         <v>2.08</v>
       </c>
-      <c r="LA78" t="n">
+      <c r="LA78" s="2" t="n">
         <v>2.63</v>
+      </c>
+      <c r="LB78" s="2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="LC78" s="2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="LD78" t="n">
+        <v>2.05</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -74953,8 +75655,17 @@
       <c r="KZ79" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LA79" t="n">
+      <c r="LA79" s="2" t="n">
         <v>5.56</v>
+      </c>
+      <c r="LB79" s="2" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="LC79" s="2" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="LD79" t="n">
+        <v>4.09</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -75896,8 +76607,17 @@
       <c r="KZ80" s="2" t="n">
         <v>46.3</v>
       </c>
-      <c r="LA80" t="n">
+      <c r="LA80" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="LB80" s="2" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="LC80" s="2" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="LD80" t="n">
+        <v>46.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -76839,8 +77559,17 @@
       <c r="KZ81" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="LA81" t="n">
+      <c r="LA81" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="LB81" s="2" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="LC81" s="2" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="LD81" t="n">
+        <v>24.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -77782,8 +78511,17 @@
       <c r="KZ82" s="2" t="n">
         <v>188.4</v>
       </c>
-      <c r="LA82" t="n">
+      <c r="LA82" s="2" t="n">
         <v>187.8</v>
+      </c>
+      <c r="LB82" s="2" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="LC82" s="2" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="LD82" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -78725,8 +79463,17 @@
       <c r="KZ83" s="2" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="LA83" t="n">
+      <c r="LA83" s="2" t="n">
         <v>85.40000000000001</v>
+      </c>
+      <c r="LB83" s="2" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="LC83" s="2" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="LD83" t="n">
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -79668,8 +80415,17 @@
       <c r="KZ84" s="2" t="n">
         <v>25.74</v>
       </c>
-      <c r="LA84" t="n">
+      <c r="LA84" s="2" t="n">
         <v>24.74</v>
+      </c>
+      <c r="LB84" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="LC84" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="LD84" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -80611,8 +81367,17 @@
       <c r="KZ85" s="2" t="n">
         <v>105.2</v>
       </c>
-      <c r="LA85" t="n">
+      <c r="LA85" s="2" t="n">
         <v>81.59999999999999</v>
+      </c>
+      <c r="LB85" s="2" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="LC85" s="2" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="LD85" t="n">
+        <v>81.09999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -81554,8 +82319,17 @@
       <c r="KZ86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LA86" t="n">
+      <c r="LA86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LB86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LC86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="LD86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -82497,7 +83271,16 @@
       <c r="KZ87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="LA87" t="n">
+      <c r="LA87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LB87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LC87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LD87" t="n">
         <v>7</v>
       </c>
     </row>
@@ -83440,8 +84223,17 @@
       <c r="KZ88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LA88" t="n">
+      <c r="LA88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LB88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LC88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LD88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -84383,8 +85175,17 @@
       <c r="KZ89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LA89" t="n">
+      <c r="LA89" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="LB89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LC89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LD89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -85326,8 +86127,17 @@
       <c r="KZ90" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="LA90" t="n">
+      <c r="LA90" s="2" t="n">
         <v>147</v>
+      </c>
+      <c r="LB90" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="LC90" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="LD90" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -86269,8 +87079,17 @@
       <c r="KZ91" s="2" t="n">
         <v>190</v>
       </c>
-      <c r="LA91" t="n">
+      <c r="LA91" s="2" t="n">
         <v>256</v>
+      </c>
+      <c r="LB91" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="LC91" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="LD91" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -87212,8 +88031,17 @@
       <c r="KZ92" s="2" t="n">
         <v>245</v>
       </c>
-      <c r="LA92" t="n">
+      <c r="LA92" s="2" t="n">
         <v>299</v>
+      </c>
+      <c r="LB92" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="LC92" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="LD92" t="n">
+        <v>246</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -88155,8 +88983,17 @@
       <c r="KZ93" s="2" t="n">
         <v>71.2</v>
       </c>
-      <c r="LA93" t="n">
+      <c r="LA93" s="2" t="n">
         <v>73.3</v>
+      </c>
+      <c r="LB93" s="2" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="LC93" s="2" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="LD93" t="n">
+        <v>75.5</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -89098,8 +89935,17 @@
       <c r="KZ94" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="LA94" t="n">
+      <c r="LA94" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="LB94" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LC94" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="LD94" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -90041,8 +90887,17 @@
       <c r="KZ95" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LA95" t="n">
+      <c r="LA95" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="LB95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LC95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LD95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -90984,8 +91839,17 @@
       <c r="KZ96" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="LA96" t="n">
+      <c r="LA96" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LB96" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LC96" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LD96" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -91927,8 +92791,17 @@
       <c r="KZ97" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="LA97" t="n">
+      <c r="LA97" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="LB97" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="LC97" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="LD97" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -92870,8 +93743,17 @@
       <c r="KZ98" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="LA98" t="n">
+      <c r="LA98" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="LB98" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="LC98" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="LD98" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -93813,7 +94695,16 @@
       <c r="KZ99" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="LA99" t="n">
+      <c r="LA99" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="LB99" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="LC99" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="LD99" t="n">
         <v>41</v>
       </c>
     </row>
@@ -94756,8 +95647,17 @@
       <c r="KZ100" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LA100" t="n">
+      <c r="LA100" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="LB100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LC100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LD100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -95699,8 +96599,17 @@
       <c r="KZ101" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="LA101" t="n">
+      <c r="LA101" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LB101" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LC101" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LD101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -96642,8 +97551,17 @@
       <c r="KZ102" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="LA102" t="n">
+      <c r="LA102" s="2" t="n">
         <v>77.8</v>
+      </c>
+      <c r="LB102" s="2" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="LC102" s="2" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="LD102" t="n">
+        <v>72.7</v>
       </c>
     </row>
   </sheetData>
